--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>質問管理アプリ機能一覧</t>
     <rPh sb="0" eb="2">
@@ -54,19 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問一覧表示</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,18 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>B01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -293,6 +268,60 @@
       <t>サクジョ</t>
     </rPh>
     <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問詳細</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>質問の詳細、回答一覧の表示を行う</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -682,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,101 +732,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>質問管理アプリ機能一覧</t>
     <rPh sb="0" eb="2">
@@ -54,6 +54,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>質問一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -161,6 +174,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>A02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>B01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -246,82 +271,142 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答削除</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答の削除を行う</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
+    <t>D01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者一覧表示</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者登録</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者編集</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者削除</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問詳細</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問一覧</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者の検索・一覧表示を行う</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>A04</t>
-  </si>
-  <si>
-    <t>A05</t>
-  </si>
-  <si>
-    <t>質問の詳細、回答一覧の表示を行う</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者の新規登録を行う</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者の編集を行う</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者の削除を行う</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている利用者でログインを行う</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -400,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +493,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,11 +799,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -732,112 +818,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>質問管理アプリ機能一覧</t>
     <rPh sb="0" eb="2">
@@ -407,6 +407,42 @@
       <t>リヨウシャ</t>
     </rPh>
     <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者詳細表示</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者の詳細情報の表示を行う</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -799,9 +835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -917,45 +955,56 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
     </row>

--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>質問管理アプリ機能一覧</t>
     <rPh sb="0" eb="2">
@@ -444,6 +444,154 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件登録</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件編集</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件削除</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>案件の検索・一覧表示を行う</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件の新規登録を行う</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている案件の編集を行う</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている案件の削除を行う</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>案件の詳細表示、案件への利用者登録</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -835,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1006,6 +1154,61 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
